--- a/Notes/Procedural Avionics Breakdown.xlsx
+++ b/Notes/Procedural Avionics Breakdown.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan paplaczyk\Dropbox\GAMES\KSP\Git\RealismOverhaul\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pap\Dropbox\GAMES\KSP\Git\RealismOverhaul\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3467A0D5-46AB-4DE8-8694-C0400854C174}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -189,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,7 +342,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -722,7 +727,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -829,7 +833,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1041,25 +1044,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5330.85</c:v>
+                  <c:v>4850</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2431.7384619999998</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4005.7</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4005.7</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4005.7</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1952.4675319999999</c:v>
+                  <c:v>1475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1952.4675319999999</c:v>
+                  <c:v>1475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,7 +1218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1322,7 +1324,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1537,22 +1538,22 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.123</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1999999999999999E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1999999999999999E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1709,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3460,7 +3460,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3490,7 +3496,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3520,7 +3532,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3800,11 +3818,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3816,7 +3836,7 @@
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -3828,7 +3848,7 @@
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
         <v>38</v>
@@ -3852,7 +3872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -3878,7 +3898,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3904,7 +3924,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3930,7 +3950,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3955,8 +3975,16 @@
       <c r="H5" s="3">
         <v>23.692309999999999</v>
       </c>
+      <c r="J5">
+        <f>2300*2</f>
+        <v>4600</v>
+      </c>
+      <c r="K5">
+        <f>J5*20</f>
+        <v>92000</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3981,34 +4009,50 @@
       <c r="H6" s="3">
         <v>0.32500000000000001</v>
       </c>
+      <c r="J6">
+        <f>1475*0.7</f>
+        <v>1032.5</v>
+      </c>
+      <c r="K6">
+        <f>J6*20</f>
+        <v>20650</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>5330.85</v>
+        <v>4850</v>
       </c>
       <c r="C7" s="3">
-        <v>2431.7384619999998</v>
+        <v>3000</v>
       </c>
       <c r="D7" s="3">
-        <v>4005.7</v>
+        <v>2300</v>
       </c>
       <c r="E7" s="3">
-        <v>4005.7</v>
+        <v>2300</v>
       </c>
       <c r="F7" s="3">
-        <v>4005.7</v>
+        <v>2300</v>
       </c>
       <c r="G7" s="3">
-        <v>1952.4675319999999</v>
+        <v>1475</v>
       </c>
       <c r="H7" s="3">
-        <v>1952.4675319999999</v>
+        <v>1475</v>
+      </c>
+      <c r="J7">
+        <f>2300*6</f>
+        <v>13800</v>
+      </c>
+      <c r="K7">
+        <f>J7*20</f>
+        <v>276000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -4016,25 +4060,25 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="3">
-        <v>0.123</v>
+        <v>0.156</v>
       </c>
       <c r="D8" s="3">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="3">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F8" s="3">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G8" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H8" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4042,8 +4086,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
+      <c r="W9">
+        <f>1291*20</f>
+        <v>25820</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4051,8 +4099,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="W10">
+        <f>236*20</f>
+        <v>4720</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4061,7 +4113,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4070,7 +4122,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4079,7 +4131,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4088,7 +4140,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4097,7 +4149,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4813,7 +4865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
